--- a/medicine/Enfance/Les_Belles_Images/Les_Belles_Images.xlsx
+++ b/medicine/Enfance/Les_Belles_Images/Les_Belles_Images.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Pour le roman de Simone de Beauvoir, voir Les Belles Images (roman)
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le succès des Belles Images, conjoint à celui de La Jeunesse illustrée, créé l'année précédente par le même éditeur, lui a permis d'imposer un modèle de diffusion de la bande dessinée en couleurs — l'hebdomadaire illustré pour enfant — qui a dominé en France jusqu'aux années 1960[1]. Toutefois, à ses débuts, ce modèle graphique s'ancre dans la tradition de l'image d'Épinal.
-En plus de récits sous images amorcés dès la couverture, il publie des contes, articles et romans-feuilletons. La liste complète de ces derniers a été publiée en annexe à la réédition de l'un d'eux, Eternel matin par Marius Monnier (Archives et documents presse et feuilletons (ADPF), 2019)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le succès des Belles Images, conjoint à celui de La Jeunesse illustrée, créé l'année précédente par le même éditeur, lui a permis d'imposer un modèle de diffusion de la bande dessinée en couleurs — l'hebdomadaire illustré pour enfant — qui a dominé en France jusqu'aux années 1960. Toutefois, à ses débuts, ce modèle graphique s'ancre dans la tradition de l'image d'Épinal.
+En plus de récits sous images amorcés dès la couverture, il publie des contes, articles et romans-feuilletons. La liste complète de ces derniers a été publiée en annexe à la réédition de l'un d'eux, Eternel matin par Marius Monnier (Archives et documents presse et feuilletons (ADPF), 2019).
 En juin 1935, sans changer de numérotation, le titre fusionne avec La Jeunesse illustrée et devient Les Belles images et Jeunesse illustrée, qui paraît jusqu’au 3 novembre 1936 (no 1681).
 </t>
         </is>
